--- a/1. Raw Data/State Finances by year/2010-2016 addendum/2015b.xlsx
+++ b/1. Raw Data/State Finances by year/2010-2016 addendum/2015b.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57n293\Documents\GitHub\ECNS_560_AS-RH\1. Raw Data\State Finances by year\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d57n293\Documents\GitHub\ECNS_560_AS-RH\1. Raw Data\State Finances by year\2010-2016 addendum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{643978F0-DED7-43AC-989D-36E29EBE892A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2DE06B-FAB1-4BEA-A2E3-E6F52AC0ADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{F047D50A-68E6-4CB2-91A4-6245EE9ABDE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="151">
   <si>
     <t>Missouri</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Other than insurance trust funds</t>
   </si>
   <si>
-    <t xml:space="preserve">   By purpose:</t>
-  </si>
-  <si>
     <t xml:space="preserve">          Offsets to debt</t>
   </si>
   <si>
@@ -461,6 +458,33 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
   </si>
 </sst>
 </file>
@@ -811,18 +835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5849B1D8-DE9D-45F3-9351-E541CDDCD7B2}">
-  <dimension ref="A1:R150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888C4171-3F37-4BFE-B298-97FFEA53CC82}">
+  <dimension ref="A1:AA149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A178" activeCellId="27" sqref="A3:XFD3 A5:XFD5 A7:XFD7 A12:XFD12 A28:XFD28 A45:XFD45 A51:XFD51 A57:XFD57 A59:XFD59 A65:XFD65 A67:XFD67 A79:XFD79 A84:XFD84 A94:XFD94 A105:XFD105 A112:XFD112 A119:XFD119 A130:XFD130 A137:XFD137 A141:XFD141 A148:XFD148 A150:XFD150 A156:XFD156 A158:XFD158 A164:XFD164 A166:XFD166 A172:XFD172 A178:XFD185"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A178" activeCellId="28" sqref="A3:XFD3 A5:XFD5 A7:XFD7 A12:XFD12 A28:XFD28 A45:XFD45 A51:XFD51 A57:XFD57 A59:XFD59 A65:XFD65 A67:XFD67 A79:XFD79 A84:XFD84 A94:XFD94 A105:XFD105 A112:XFD112 A119:XFD119 A130:XFD130 A137:XFD137 A141:XFD141 A148:XFD148 A150:XFD150 A156:XFD156 A158:XFD158 A164:XFD164 A166:XFD166 A172:XFD172 A174:XFD174 A178:XFD185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -870,15 +897,42 @@
         <v>14</v>
       </c>
       <c r="Q1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>146</v>
+      </c>
+      <c r="W1" t="s">
+        <v>147</v>
+      </c>
+      <c r="X1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>2015</v>
@@ -931,8 +985,35 @@
       <c r="R2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>2015</v>
+      </c>
+      <c r="T2">
+        <v>2015</v>
+      </c>
+      <c r="U2">
+        <v>2015</v>
+      </c>
+      <c r="V2">
+        <v>2015</v>
+      </c>
+      <c r="W2">
+        <v>2015</v>
+      </c>
+      <c r="X2">
+        <v>2015</v>
+      </c>
+      <c r="Y2">
+        <v>2015</v>
+      </c>
+      <c r="Z2">
+        <v>2015</v>
+      </c>
+      <c r="AA2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -982,13 +1063,40 @@
         <v>8893857</v>
       </c>
       <c r="Q3">
+        <v>30354282</v>
+      </c>
+      <c r="R3">
+        <v>4752945</v>
+      </c>
+      <c r="S3">
+        <v>30091732</v>
+      </c>
+      <c r="T3">
+        <v>133653200</v>
+      </c>
+      <c r="U3">
         <v>18810478</v>
       </c>
-      <c r="R3">
+      <c r="V3">
+        <v>6363175</v>
+      </c>
+      <c r="W3">
+        <v>51345671</v>
+      </c>
+      <c r="X3">
+        <v>50036623</v>
+      </c>
+      <c r="Y3">
+        <v>13770542</v>
+      </c>
+      <c r="Z3">
         <v>41554288</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA3">
+        <v>7983068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1038,13 +1146,40 @@
         <v>7997153</v>
       </c>
       <c r="Q4">
+        <v>25518253</v>
+      </c>
+      <c r="R4">
+        <v>4072759</v>
+      </c>
+      <c r="S4">
+        <v>27466329</v>
+      </c>
+      <c r="T4">
+        <v>120496914</v>
+      </c>
+      <c r="U4">
         <v>15860995</v>
       </c>
-      <c r="R4">
+      <c r="V4">
+        <v>6084121</v>
+      </c>
+      <c r="W4">
+        <v>44283149</v>
+      </c>
+      <c r="X4">
+        <v>41589620</v>
+      </c>
+      <c r="Y4">
+        <v>12546909</v>
+      </c>
+      <c r="Z4">
         <v>33396116</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <v>6768343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1094,13 +1229,40 @@
         <v>2830590</v>
       </c>
       <c r="Q5">
+        <v>9406376</v>
+      </c>
+      <c r="R5">
+        <v>1468446</v>
+      </c>
+      <c r="S5">
+        <v>10716674</v>
+      </c>
+      <c r="T5">
+        <v>39734473</v>
+      </c>
+      <c r="U5">
         <v>4238358</v>
       </c>
-      <c r="R5">
+      <c r="V5">
+        <v>2156853</v>
+      </c>
+      <c r="W5">
+        <v>9992812</v>
+      </c>
+      <c r="X5">
+        <v>13274990</v>
+      </c>
+      <c r="Y5">
+        <v>4513946</v>
+      </c>
+      <c r="Z5">
         <v>9402116</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <v>2999924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1150,13 +1312,40 @@
         <v>2765609</v>
       </c>
       <c r="Q6">
+        <v>9173126</v>
+      </c>
+      <c r="R6">
+        <v>1435119</v>
+      </c>
+      <c r="S6">
+        <v>10612373</v>
+      </c>
+      <c r="T6">
+        <v>37363758</v>
+      </c>
+      <c r="U6">
         <v>4233935</v>
       </c>
-      <c r="R6">
+      <c r="V6">
+        <v>2154842</v>
+      </c>
+      <c r="W6">
+        <v>9353287</v>
+      </c>
+      <c r="X6">
+        <v>12889183</v>
+      </c>
+      <c r="Y6">
+        <v>4431608</v>
+      </c>
+      <c r="Z6">
         <v>9181330</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <v>2989350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1211,8 +1400,35 @@
       <c r="R7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1262,13 +1478,40 @@
         <v>64981</v>
       </c>
       <c r="Q8">
+        <v>233250</v>
+      </c>
+      <c r="R8">
+        <v>33327</v>
+      </c>
+      <c r="S8">
+        <v>104301</v>
+      </c>
+      <c r="T8">
+        <v>2370715</v>
+      </c>
+      <c r="U8">
         <v>4423</v>
       </c>
-      <c r="R8">
+      <c r="V8">
+        <v>2011</v>
+      </c>
+      <c r="W8">
+        <v>639525</v>
+      </c>
+      <c r="X8">
+        <v>385807</v>
+      </c>
+      <c r="Y8">
+        <v>82338</v>
+      </c>
+      <c r="Z8">
         <v>220786</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <v>10574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1318,13 +1561,40 @@
         <v>5166563</v>
       </c>
       <c r="Q9">
+        <v>16111877</v>
+      </c>
+      <c r="R9">
+        <v>2604313</v>
+      </c>
+      <c r="S9">
+        <v>16749655</v>
+      </c>
+      <c r="T9">
+        <v>80762441</v>
+      </c>
+      <c r="U9">
         <v>11622637</v>
       </c>
-      <c r="R9">
+      <c r="V9">
+        <v>3927268</v>
+      </c>
+      <c r="W9">
+        <v>34290337</v>
+      </c>
+      <c r="X9">
+        <v>28314630</v>
+      </c>
+      <c r="Y9">
+        <v>8032963</v>
+      </c>
+      <c r="Z9">
         <v>23994000</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <v>3768419</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1374,13 +1644,40 @@
         <v>3165635</v>
       </c>
       <c r="Q10">
+        <v>9598478</v>
+      </c>
+      <c r="R10">
+        <v>1674108</v>
+      </c>
+      <c r="S10">
+        <v>12698496</v>
+      </c>
+      <c r="T10">
+        <v>55086438</v>
+      </c>
+      <c r="U10">
         <v>6703356</v>
       </c>
-      <c r="R10">
+      <c r="V10">
+        <v>3043152</v>
+      </c>
+      <c r="W10">
+        <v>20536885</v>
+      </c>
+      <c r="X10">
+        <v>20644454</v>
+      </c>
+      <c r="Y10">
+        <v>5565985</v>
+      </c>
+      <c r="Z10">
         <v>17019139</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <v>2356323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1430,13 +1727,40 @@
         <v>2480</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>26394</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>1035611</v>
+      </c>
+      <c r="W11">
+        <v>32712</v>
+      </c>
+      <c r="X11">
+        <v>2018393</v>
+      </c>
+      <c r="Y11">
+        <v>6679</v>
+      </c>
+      <c r="Z11">
         <v>165155</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <v>318569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1486,13 +1810,40 @@
         <v>1620523</v>
       </c>
       <c r="Q12">
+        <v>4845230</v>
+      </c>
+      <c r="R12">
+        <v>1372682</v>
+      </c>
+      <c r="S12">
+        <v>9196721</v>
+      </c>
+      <c r="T12">
+        <v>47654182</v>
+      </c>
+      <c r="U12">
         <v>2766724</v>
       </c>
-      <c r="R12">
+      <c r="V12">
+        <v>1026188</v>
+      </c>
+      <c r="W12">
+        <v>6495087</v>
+      </c>
+      <c r="X12">
+        <v>16241234</v>
+      </c>
+      <c r="Y12">
+        <v>2619323</v>
+      </c>
+      <c r="Z12">
         <v>7647097</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <v>994850</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,13 +1893,40 @@
         <v>959513</v>
       </c>
       <c r="Q13">
+        <v>3568788</v>
+      </c>
+      <c r="R13">
+        <v>970784</v>
+      </c>
+      <c r="S13">
+        <v>6548032</v>
+      </c>
+      <c r="T13">
+        <v>33664187</v>
+      </c>
+      <c r="U13">
         <v>1882901</v>
       </c>
-      <c r="R13">
+      <c r="V13">
+        <v>366667</v>
+      </c>
+      <c r="W13">
+        <v>3793215</v>
+      </c>
+      <c r="X13">
+        <v>12517831</v>
+      </c>
+      <c r="Y13">
+        <v>1293327</v>
+      </c>
+      <c r="Z13">
         <v>4892126</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <v>811105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1598,13 +1976,40 @@
         <v>661010</v>
       </c>
       <c r="Q14">
+        <v>1276442</v>
+      </c>
+      <c r="R14">
+        <v>401898</v>
+      </c>
+      <c r="S14">
+        <v>2648689</v>
+      </c>
+      <c r="T14">
+        <v>13989995</v>
+      </c>
+      <c r="U14">
         <v>883823</v>
       </c>
-      <c r="R14">
+      <c r="V14">
+        <v>659521</v>
+      </c>
+      <c r="W14">
+        <v>2701872</v>
+      </c>
+      <c r="X14">
+        <v>3723403</v>
+      </c>
+      <c r="Y14">
+        <v>1325996</v>
+      </c>
+      <c r="Z14">
         <v>2754971</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <v>183745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1654,13 +2059,40 @@
         <v>85801</v>
       </c>
       <c r="Q15">
+        <v>546370</v>
+      </c>
+      <c r="R15">
+        <v>148170</v>
+      </c>
+      <c r="S15">
+        <v>857605</v>
+      </c>
+      <c r="T15">
+        <v>3462288</v>
+      </c>
+      <c r="U15">
         <v>377390</v>
       </c>
-      <c r="R15">
+      <c r="V15">
+        <v>85619</v>
+      </c>
+      <c r="W15">
+        <v>755681</v>
+      </c>
+      <c r="X15">
+        <v>1247817</v>
+      </c>
+      <c r="Y15">
+        <v>433877</v>
+      </c>
+      <c r="Z15">
         <v>1014656</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <v>118639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1710,13 +2142,40 @@
         <v>19538</v>
       </c>
       <c r="Q16">
+        <v>166501</v>
+      </c>
+      <c r="R16">
+        <v>16690</v>
+      </c>
+      <c r="S16">
+        <v>159768</v>
+      </c>
+      <c r="T16">
+        <v>1147565</v>
+      </c>
+      <c r="U16">
         <v>51221</v>
       </c>
-      <c r="R16">
+      <c r="V16">
+        <v>24839</v>
+      </c>
+      <c r="W16">
+        <v>257229</v>
+      </c>
+      <c r="X16">
+        <v>331405</v>
+      </c>
+      <c r="Y16">
+        <v>18159</v>
+      </c>
+      <c r="Z16">
         <v>57596</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1766,13 +2225,40 @@
         <v>137980</v>
       </c>
       <c r="Q17">
+        <v>25482</v>
+      </c>
+      <c r="R17">
+        <v>61004</v>
+      </c>
+      <c r="S17">
+        <v>263566</v>
+      </c>
+      <c r="T17">
+        <v>1491765</v>
+      </c>
+      <c r="U17">
         <v>115761</v>
       </c>
-      <c r="R17">
+      <c r="V17">
+        <v>76755</v>
+      </c>
+      <c r="W17">
+        <v>177588</v>
+      </c>
+      <c r="X17">
+        <v>474183</v>
+      </c>
+      <c r="Y17">
+        <v>102188</v>
+      </c>
+      <c r="Z17">
         <v>641464</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <v>24696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1822,13 +2308,40 @@
         <v>105292</v>
       </c>
       <c r="Q18">
+        <v>28483</v>
+      </c>
+      <c r="R18">
+        <v>3267</v>
+      </c>
+      <c r="S18">
+        <v>8153</v>
+      </c>
+      <c r="T18">
+        <v>654641</v>
+      </c>
+      <c r="U18">
         <v>24798</v>
       </c>
-      <c r="R18">
+      <c r="V18">
+        <v>18277</v>
+      </c>
+      <c r="W18">
+        <v>131270</v>
+      </c>
+      <c r="X18">
+        <v>483211</v>
+      </c>
+      <c r="Y18">
+        <v>152167</v>
+      </c>
+      <c r="Z18">
         <v>395883</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1878,13 +2391,40 @@
         <v>312399</v>
       </c>
       <c r="Q19">
+        <v>509606</v>
+      </c>
+      <c r="R19">
+        <v>172767</v>
+      </c>
+      <c r="S19">
+        <v>1359597</v>
+      </c>
+      <c r="T19">
+        <v>7233736</v>
+      </c>
+      <c r="U19">
         <v>314653</v>
       </c>
-      <c r="R19">
+      <c r="V19">
+        <v>454031</v>
+      </c>
+      <c r="W19">
+        <v>1380104</v>
+      </c>
+      <c r="X19">
+        <v>1186787</v>
+      </c>
+      <c r="Y19">
+        <v>619605</v>
+      </c>
+      <c r="Z19">
         <v>645372</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <v>35050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1934,13 +2474,40 @@
         <v>1215368</v>
       </c>
       <c r="Q20">
+        <v>3695701</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>302196</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>3157718</v>
       </c>
-      <c r="R20">
+      <c r="V20">
+        <v>709310</v>
+      </c>
+      <c r="W20">
+        <v>11903945</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>1932457</v>
+      </c>
+      <c r="Z20">
         <v>7069248</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1990,13 +2557,40 @@
         <v>176336</v>
       </c>
       <c r="Q21">
+        <v>377329</v>
+      </c>
+      <c r="R21">
+        <v>4334</v>
+      </c>
+      <c r="S21">
+        <v>1400973</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
         <v>368681</v>
       </c>
-      <c r="R21">
+      <c r="V21">
+        <v>112643</v>
+      </c>
+      <c r="W21">
+        <v>817851</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>188758</v>
+      </c>
+      <c r="Z21">
         <v>1032411</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -2046,13 +2640,40 @@
         <v>19987</v>
       </c>
       <c r="Q22">
+        <v>212246</v>
+      </c>
+      <c r="R22">
+        <v>80835</v>
+      </c>
+      <c r="S22">
+        <v>278716</v>
+      </c>
+      <c r="T22">
+        <v>2107627</v>
+      </c>
+      <c r="U22">
         <v>176458</v>
       </c>
-      <c r="R22">
+      <c r="V22">
+        <v>70033</v>
+      </c>
+      <c r="W22">
+        <v>449616</v>
+      </c>
+      <c r="X22">
+        <v>564178</v>
+      </c>
+      <c r="Y22">
+        <v>2409</v>
+      </c>
+      <c r="Z22">
         <v>470542</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <v>77492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -2102,13 +2723,40 @@
         <v>130941</v>
       </c>
       <c r="Q23">
+        <v>441578</v>
+      </c>
+      <c r="R23">
+        <v>216257</v>
+      </c>
+      <c r="S23">
+        <v>1519890</v>
+      </c>
+      <c r="T23">
+        <v>5324629</v>
+      </c>
+      <c r="U23">
         <v>233775</v>
       </c>
-      <c r="R23">
+      <c r="V23">
+        <v>89367</v>
+      </c>
+      <c r="W23">
+        <v>837674</v>
+      </c>
+      <c r="X23">
+        <v>1820649</v>
+      </c>
+      <c r="Y23">
+        <v>816359</v>
+      </c>
+      <c r="Z23">
         <v>634686</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <v>965412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -2158,13 +2806,40 @@
         <v>2000928</v>
       </c>
       <c r="Q24">
+        <v>6513399</v>
+      </c>
+      <c r="R24">
+        <v>930205</v>
+      </c>
+      <c r="S24">
+        <v>4051159</v>
+      </c>
+      <c r="T24">
+        <v>25676003</v>
+      </c>
+      <c r="U24">
         <v>4919281</v>
       </c>
-      <c r="R24">
+      <c r="V24">
+        <v>884116</v>
+      </c>
+      <c r="W24">
+        <v>13753452</v>
+      </c>
+      <c r="X24">
+        <v>7670176</v>
+      </c>
+      <c r="Y24">
+        <v>2466978</v>
+      </c>
+      <c r="Z24">
         <v>6974861</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <v>1412096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2214,13 +2889,40 @@
         <v>1069183</v>
       </c>
       <c r="Q25">
+        <v>4671714</v>
+      </c>
+      <c r="R25">
+        <v>353608</v>
+      </c>
+      <c r="S25">
+        <v>2058062</v>
+      </c>
+      <c r="T25">
+        <v>14201638</v>
+      </c>
+      <c r="U25">
         <v>3757495</v>
       </c>
-      <c r="R25">
+      <c r="V25">
+        <v>601179</v>
+      </c>
+      <c r="W25">
+        <v>9499709</v>
+      </c>
+      <c r="X25">
+        <v>5090011</v>
+      </c>
+      <c r="Y25">
+        <v>1426708</v>
+      </c>
+      <c r="Z25">
         <v>4108499</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <v>249418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -2270,13 +2972,40 @@
         <v>442989</v>
       </c>
       <c r="Q26">
+        <v>2167056</v>
+      </c>
+      <c r="R26">
+        <v>286456</v>
+      </c>
+      <c r="S26">
+        <v>1599089</v>
+      </c>
+      <c r="T26">
+        <v>7051018</v>
+      </c>
+      <c r="U26">
         <v>1610207</v>
       </c>
-      <c r="R26">
+      <c r="V26">
+        <v>515379</v>
+      </c>
+      <c r="W26">
+        <v>4108463</v>
+      </c>
+      <c r="X26">
+        <v>2797407</v>
+      </c>
+      <c r="Y26">
+        <v>851583</v>
+      </c>
+      <c r="Z26">
         <v>1979400</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <v>117676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -2326,13 +3055,40 @@
         <v>413039</v>
       </c>
       <c r="Q27">
+        <v>2130036</v>
+      </c>
+      <c r="R27">
+        <v>280539</v>
+      </c>
+      <c r="S27">
+        <v>1583678</v>
+      </c>
+      <c r="T27">
+        <v>7049561</v>
+      </c>
+      <c r="U27">
         <v>1607547</v>
       </c>
-      <c r="R27">
+      <c r="V27">
+        <v>515323</v>
+      </c>
+      <c r="W27">
+        <v>4068654</v>
+      </c>
+      <c r="X27">
+        <v>2744603</v>
+      </c>
+      <c r="Y27">
+        <v>831860</v>
+      </c>
+      <c r="Z27">
         <v>1967767</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <v>117025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2387,8 +3143,35 @@
       <c r="R28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>16</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -2438,13 +3221,40 @@
         <v>8596</v>
       </c>
       <c r="Q29">
+        <v>1617962</v>
+      </c>
+      <c r="R29">
+        <v>1089</v>
+      </c>
+      <c r="S29">
+        <v>25860</v>
+      </c>
+      <c r="T29">
+        <v>6187117</v>
+      </c>
+      <c r="U29">
         <v>1817356</v>
       </c>
-      <c r="R29">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>4383532</v>
+      </c>
+      <c r="X29">
+        <v>1362279</v>
+      </c>
+      <c r="Y29">
+        <v>70033</v>
+      </c>
+      <c r="Z29">
         <v>1515522</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA29">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2494,13 +3304,40 @@
         <v>42738</v>
       </c>
       <c r="Q30">
+        <v>25832</v>
+      </c>
+      <c r="R30">
+        <v>2039</v>
+      </c>
+      <c r="S30">
+        <v>290</v>
+      </c>
+      <c r="T30">
+        <v>177277</v>
+      </c>
+      <c r="U30">
         <v>923</v>
       </c>
-      <c r="R30">
+      <c r="V30">
+        <v>513</v>
+      </c>
+      <c r="W30">
+        <v>41549</v>
+      </c>
+      <c r="X30">
+        <v>339717</v>
+      </c>
+      <c r="Y30">
+        <v>96875</v>
+      </c>
+      <c r="Z30">
         <v>21269</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA30">
+        <v>13265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2550,13 +3387,40 @@
         <v>53523</v>
       </c>
       <c r="Q31">
+        <v>387</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
         <v>422</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>58</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>489</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2609,10 +3473,37 @@
         <v>0</v>
       </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
         <v>3386</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2662,13 +3553,40 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>196759</v>
       </c>
       <c r="R33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>440842</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2718,13 +3636,40 @@
         <v>16250</v>
       </c>
       <c r="Q34">
+        <v>28322</v>
+      </c>
+      <c r="R34">
+        <v>16556</v>
+      </c>
+      <c r="S34">
+        <v>15738</v>
+      </c>
+      <c r="T34">
+        <v>44362</v>
+      </c>
+      <c r="U34">
         <v>12703</v>
       </c>
-      <c r="R34">
+      <c r="V34">
+        <v>2889</v>
+      </c>
+      <c r="W34">
+        <v>10521</v>
+      </c>
+      <c r="X34">
+        <v>135990</v>
+      </c>
+      <c r="Y34">
+        <v>25848</v>
+      </c>
+      <c r="Z34">
         <v>72201</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA34">
+        <v>15410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2774,13 +3719,40 @@
         <v>29866</v>
       </c>
       <c r="Q35">
+        <v>35779</v>
+      </c>
+      <c r="R35">
+        <v>2874</v>
+      </c>
+      <c r="S35">
+        <v>35714</v>
+      </c>
+      <c r="T35">
+        <v>50656</v>
+      </c>
+      <c r="U35">
         <v>15544</v>
       </c>
-      <c r="R35">
+      <c r="V35">
+        <v>10460</v>
+      </c>
+      <c r="W35">
+        <v>26941</v>
+      </c>
+      <c r="X35">
+        <v>2367</v>
+      </c>
+      <c r="Y35">
+        <v>15127</v>
+      </c>
+      <c r="Z35">
         <v>43770</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA35">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2830,13 +3802,40 @@
         <v>14755</v>
       </c>
       <c r="Q36">
+        <v>11564</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>1168</v>
+      </c>
+      <c r="T36">
+        <v>14960</v>
+      </c>
+      <c r="U36">
         <v>2543</v>
       </c>
-      <c r="R36">
+      <c r="V36">
+        <v>4429</v>
+      </c>
+      <c r="W36">
+        <v>22323</v>
+      </c>
+      <c r="X36">
+        <v>58411</v>
+      </c>
+      <c r="Y36">
+        <v>7618</v>
+      </c>
+      <c r="Z36">
         <v>18337</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA36">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2889,10 +3888,37 @@
         <v>0</v>
       </c>
       <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>112</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>8149</v>
+      </c>
+      <c r="Z37">
         <v>127</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2942,13 +3968,40 @@
         <v>11921</v>
       </c>
       <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>1293</v>
+      </c>
+      <c r="T38">
+        <v>69876</v>
+      </c>
+      <c r="U38">
         <v>4134</v>
       </c>
-      <c r="R38">
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>1308</v>
+      </c>
+      <c r="Z38">
         <v>918</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2998,13 +4051,40 @@
         <v>352735</v>
       </c>
       <c r="Q39">
+        <v>588053</v>
+      </c>
+      <c r="R39">
+        <v>44594</v>
+      </c>
+      <c r="S39">
+        <v>378910</v>
+      </c>
+      <c r="T39">
+        <v>606260</v>
+      </c>
+      <c r="U39">
         <v>293663</v>
       </c>
-      <c r="R39">
+      <c r="V39">
+        <v>67509</v>
+      </c>
+      <c r="W39">
+        <v>465480</v>
+      </c>
+      <c r="X39">
+        <v>393837</v>
+      </c>
+      <c r="Y39">
+        <v>349678</v>
+      </c>
+      <c r="Z39">
         <v>453569</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA39">
+        <v>97570</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -3054,13 +4134,40 @@
         <v>931745</v>
       </c>
       <c r="Q40">
+        <v>1841685</v>
+      </c>
+      <c r="R40">
+        <v>576597</v>
+      </c>
+      <c r="S40">
+        <v>1993097</v>
+      </c>
+      <c r="T40">
+        <v>11474365</v>
+      </c>
+      <c r="U40">
         <v>1161786</v>
       </c>
-      <c r="R40">
+      <c r="V40">
+        <v>282937</v>
+      </c>
+      <c r="W40">
+        <v>4253743</v>
+      </c>
+      <c r="X40">
+        <v>2580165</v>
+      </c>
+      <c r="Y40">
+        <v>1040270</v>
+      </c>
+      <c r="Z40">
         <v>2866362</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA40">
+        <v>1162678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -3110,13 +4217,40 @@
         <v>365495</v>
       </c>
       <c r="Q41">
+        <v>301026</v>
+      </c>
+      <c r="R41">
+        <v>216709</v>
+      </c>
+      <c r="S41">
+        <v>178090</v>
+      </c>
+      <c r="T41">
+        <v>3593560</v>
+      </c>
+      <c r="U41">
         <v>304553</v>
       </c>
-      <c r="R41">
+      <c r="V41">
+        <v>102375</v>
+      </c>
+      <c r="W41">
+        <v>899543</v>
+      </c>
+      <c r="X41">
+        <v>691909</v>
+      </c>
+      <c r="Y41">
+        <v>178825</v>
+      </c>
+      <c r="Z41">
         <v>729900</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA41">
+        <v>796493</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -3171,8 +4305,35 @@
       <c r="R42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>948</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -3222,13 +4383,40 @@
         <v>3039</v>
       </c>
       <c r="Q43">
+        <v>18617</v>
+      </c>
+      <c r="R43">
+        <v>3071</v>
+      </c>
+      <c r="S43">
+        <v>2649</v>
+      </c>
+      <c r="T43">
+        <v>112891</v>
+      </c>
+      <c r="U43">
         <v>28738</v>
       </c>
-      <c r="R43">
+      <c r="V43">
+        <v>454</v>
+      </c>
+      <c r="W43">
+        <v>2765</v>
+      </c>
+      <c r="X43">
+        <v>16110</v>
+      </c>
+      <c r="Y43">
+        <v>1060</v>
+      </c>
+      <c r="Z43">
         <v>5599</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA43">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -3278,13 +4466,40 @@
         <v>563211</v>
       </c>
       <c r="Q44">
+        <v>1522042</v>
+      </c>
+      <c r="R44">
+        <v>356817</v>
+      </c>
+      <c r="S44">
+        <v>1812358</v>
+      </c>
+      <c r="T44">
+        <v>7767914</v>
+      </c>
+      <c r="U44">
         <v>828495</v>
       </c>
-      <c r="R44">
+      <c r="V44">
+        <v>180108</v>
+      </c>
+      <c r="W44">
+        <v>3351435</v>
+      </c>
+      <c r="X44">
+        <v>1872146</v>
+      </c>
+      <c r="Y44">
+        <v>859437</v>
+      </c>
+      <c r="Z44">
         <v>2130863</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA44">
+        <v>365801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -3334,13 +4549,40 @@
         <v>24588</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>1983216</v>
       </c>
       <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>2764</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -3390,13 +4632,40 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>7854</v>
       </c>
       <c r="R46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -3446,13 +4715,40 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1975362</v>
       </c>
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -3507,8 +4803,35 @@
       <c r="R48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -3563,8 +4886,35 @@
       <c r="R49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>4</v>
+      </c>
+      <c r="Y49">
+        <v>2764</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -3614,13 +4964,40 @@
         <v>0</v>
       </c>
       <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
         <v>334840</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V50">
+        <v>54320</v>
+      </c>
+      <c r="W50">
+        <v>704141</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>93951</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>110208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -3670,13 +5047,40 @@
         <v>872116</v>
       </c>
       <c r="Q51">
+        <v>2852813</v>
+      </c>
+      <c r="R51">
+        <v>678756</v>
+      </c>
+      <c r="S51">
+        <v>2625403</v>
+      </c>
+      <c r="T51">
+        <v>13156286</v>
+      </c>
+      <c r="U51">
         <v>2614643</v>
       </c>
-      <c r="R51">
+      <c r="V51">
+        <v>224734</v>
+      </c>
+      <c r="W51">
+        <v>6358381</v>
+      </c>
+      <c r="X51">
+        <v>8446999</v>
+      </c>
+      <c r="Y51">
+        <v>1126918</v>
+      </c>
+      <c r="Z51">
         <v>8158172</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA51">
+        <v>1104134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -3726,13 +5130,40 @@
         <v>267720</v>
       </c>
       <c r="Q52">
+        <v>467790</v>
+      </c>
+      <c r="R52">
+        <v>44134</v>
+      </c>
+      <c r="S52">
+        <v>378748</v>
+      </c>
+      <c r="T52">
+        <v>2311936</v>
+      </c>
+      <c r="U52">
         <v>316297</v>
       </c>
-      <c r="R52">
+      <c r="V52">
+        <v>147127</v>
+      </c>
+      <c r="W52">
+        <v>713179</v>
+      </c>
+      <c r="X52">
+        <v>1440874</v>
+      </c>
+      <c r="Y52">
+        <v>214990</v>
+      </c>
+      <c r="Z52">
         <v>1105326</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA52">
+        <v>106112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -3782,13 +5213,40 @@
         <v>409334</v>
       </c>
       <c r="Q53">
+        <v>2304895</v>
+      </c>
+      <c r="R53">
+        <v>634594</v>
+      </c>
+      <c r="S53">
+        <v>2246655</v>
+      </c>
+      <c r="T53">
+        <v>9362246</v>
+      </c>
+      <c r="U53">
         <v>2026462</v>
       </c>
-      <c r="R53">
+      <c r="V53">
+        <v>77607</v>
+      </c>
+      <c r="W53">
+        <v>5642354</v>
+      </c>
+      <c r="X53">
+        <v>4250295</v>
+      </c>
+      <c r="Y53">
+        <v>850712</v>
+      </c>
+      <c r="Z53">
         <v>7048009</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA53">
+        <v>625170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
@@ -3838,13 +5296,40 @@
         <v>17838</v>
       </c>
       <c r="Q54">
+        <v>80128</v>
+      </c>
+      <c r="R54">
+        <v>28</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1482104</v>
+      </c>
+      <c r="U54">
         <v>271884</v>
       </c>
-      <c r="R54">
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>2848</v>
+      </c>
+      <c r="X54">
+        <v>2755830</v>
+      </c>
+      <c r="Y54">
+        <v>61216</v>
+      </c>
+      <c r="Z54">
         <v>4837</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA54">
+        <v>372852</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>69</v>
       </c>
@@ -3899,8 +5384,35 @@
       <c r="R55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>70</v>
       </c>
@@ -3950,18 +5462,45 @@
         <v>8900825</v>
       </c>
       <c r="Q56">
+        <v>30366641</v>
+      </c>
+      <c r="R56">
+        <v>4773791</v>
+      </c>
+      <c r="S56">
+        <v>30659994</v>
+      </c>
+      <c r="T56">
+        <v>136514037</v>
+      </c>
+      <c r="U56">
         <v>18360434</v>
       </c>
-      <c r="R56">
+      <c r="V56">
+        <v>6662004</v>
+      </c>
+      <c r="W56">
+        <v>50213783</v>
+      </c>
+      <c r="X56">
+        <v>51605750</v>
+      </c>
+      <c r="Y56">
+        <v>14252984</v>
+      </c>
+      <c r="Z56">
         <v>42767738</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA56">
+        <v>6147639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>72</v>
       </c>
@@ -4011,13 +5550,40 @@
         <v>1214844</v>
       </c>
       <c r="Q58">
+        <v>5779185</v>
+      </c>
+      <c r="R58">
+        <v>787017</v>
+      </c>
+      <c r="S58">
+        <v>6778179</v>
+      </c>
+      <c r="T58">
+        <v>30404530</v>
+      </c>
+      <c r="U58">
         <v>3410675</v>
       </c>
-      <c r="R58">
+      <c r="V58">
+        <v>1719511</v>
+      </c>
+      <c r="W58">
+        <v>11654752</v>
+      </c>
+      <c r="X58">
+        <v>12112462</v>
+      </c>
+      <c r="Y58">
+        <v>2578274</v>
+      </c>
+      <c r="Z58">
         <v>13355924</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA58">
+        <v>1505917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>73</v>
       </c>
@@ -4067,13 +5633,40 @@
         <v>7685981</v>
       </c>
       <c r="Q59">
+        <v>24587456</v>
+      </c>
+      <c r="R59">
+        <v>3986774</v>
+      </c>
+      <c r="S59">
+        <v>23881815</v>
+      </c>
+      <c r="T59">
+        <v>106109507</v>
+      </c>
+      <c r="U59">
         <v>14949759</v>
       </c>
-      <c r="R59">
+      <c r="V59">
+        <v>4942493</v>
+      </c>
+      <c r="W59">
+        <v>38559031</v>
+      </c>
+      <c r="X59">
+        <v>39493288</v>
+      </c>
+      <c r="Y59">
+        <v>11674710</v>
+      </c>
+      <c r="Z59">
         <v>29411814</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA59">
+        <v>4641722</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -4123,13 +5716,40 @@
         <v>5298486</v>
       </c>
       <c r="Q60">
+        <v>18083296</v>
+      </c>
+      <c r="R60">
+        <v>2690848</v>
+      </c>
+      <c r="S60">
+        <v>18369936</v>
+      </c>
+      <c r="T60">
+        <v>75885966</v>
+      </c>
+      <c r="U60">
         <v>10678775</v>
       </c>
-      <c r="R60">
+      <c r="V60">
+        <v>4020750</v>
+      </c>
+      <c r="W60">
+        <v>28210352</v>
+      </c>
+      <c r="X60">
+        <v>26587149</v>
+      </c>
+      <c r="Y60">
+        <v>8710760</v>
+      </c>
+      <c r="Z60">
         <v>21052767</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA60">
+        <v>3335355</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>75</v>
       </c>
@@ -4179,13 +5799,40 @@
         <v>453035</v>
       </c>
       <c r="Q61">
+        <v>1361763</v>
+      </c>
+      <c r="R61">
+        <v>555168</v>
+      </c>
+      <c r="S61">
+        <v>1547913</v>
+      </c>
+      <c r="T61">
+        <v>9184944</v>
+      </c>
+      <c r="U61">
         <v>1521056</v>
       </c>
-      <c r="R61">
+      <c r="V61">
+        <v>282154</v>
+      </c>
+      <c r="W61">
+        <v>3437552</v>
+      </c>
+      <c r="X61">
+        <v>3159804</v>
+      </c>
+      <c r="Y61">
+        <v>835786</v>
+      </c>
+      <c r="Z61">
         <v>1925760</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA61">
+        <v>467279</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>76</v>
       </c>
@@ -4235,13 +5882,40 @@
         <v>372709</v>
       </c>
       <c r="Q62">
+        <v>1173902</v>
+      </c>
+      <c r="R62">
+        <v>509922</v>
+      </c>
+      <c r="S62">
+        <v>1336479</v>
+      </c>
+      <c r="T62">
+        <v>7554097</v>
+      </c>
+      <c r="U62">
         <v>1144735</v>
       </c>
-      <c r="R62">
+      <c r="V62">
+        <v>236683</v>
+      </c>
+      <c r="W62">
+        <v>2830017</v>
+      </c>
+      <c r="X62">
+        <v>2541362</v>
+      </c>
+      <c r="Y62">
+        <v>752052</v>
+      </c>
+      <c r="Z62">
         <v>1648569</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA62">
+        <v>437584</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -4291,13 +5965,40 @@
         <v>80326</v>
       </c>
       <c r="Q63">
+        <v>187861</v>
+      </c>
+      <c r="R63">
+        <v>45246</v>
+      </c>
+      <c r="S63">
+        <v>211434</v>
+      </c>
+      <c r="T63">
+        <v>1630847</v>
+      </c>
+      <c r="U63">
         <v>376321</v>
       </c>
-      <c r="R63">
+      <c r="V63">
+        <v>45471</v>
+      </c>
+      <c r="W63">
+        <v>607535</v>
+      </c>
+      <c r="X63">
+        <v>618442</v>
+      </c>
+      <c r="Y63">
+        <v>83734</v>
+      </c>
+      <c r="Z63">
         <v>277191</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA63">
+        <v>29695</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>78</v>
       </c>
@@ -4347,13 +6048,40 @@
         <v>159199</v>
       </c>
       <c r="Q64">
+        <v>1288344</v>
+      </c>
+      <c r="R64">
+        <v>122268</v>
+      </c>
+      <c r="S64">
+        <v>1224251</v>
+      </c>
+      <c r="T64">
+        <v>3263890</v>
+      </c>
+      <c r="U64">
         <v>816405</v>
       </c>
-      <c r="R64">
+      <c r="V64">
+        <v>168484</v>
+      </c>
+      <c r="W64">
+        <v>1168755</v>
+      </c>
+      <c r="X64">
+        <v>1577951</v>
+      </c>
+      <c r="Y64">
+        <v>571299</v>
+      </c>
+      <c r="Z64">
         <v>669851</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA64">
+        <v>50060</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -4403,13 +6131,40 @@
         <v>519602</v>
       </c>
       <c r="Q65">
+        <v>539648</v>
+      </c>
+      <c r="R65">
+        <v>108377</v>
+      </c>
+      <c r="S65">
+        <v>239100</v>
+      </c>
+      <c r="T65">
+        <v>1204811</v>
+      </c>
+      <c r="U65">
         <v>237079</v>
       </c>
-      <c r="R65">
+      <c r="V65">
+        <v>109971</v>
+      </c>
+      <c r="W65">
+        <v>1066388</v>
+      </c>
+      <c r="X65">
+        <v>1414999</v>
+      </c>
+      <c r="Y65">
+        <v>181326</v>
+      </c>
+      <c r="Z65">
         <v>598458</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA65">
+        <v>27290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -4459,13 +6214,40 @@
         <v>1255659</v>
       </c>
       <c r="Q66">
+        <v>3314405</v>
+      </c>
+      <c r="R66">
+        <v>510113</v>
+      </c>
+      <c r="S66">
+        <v>2500615</v>
+      </c>
+      <c r="T66">
+        <v>16569896</v>
+      </c>
+      <c r="U66">
         <v>1696444</v>
       </c>
-      <c r="R66">
+      <c r="V66">
+        <v>361134</v>
+      </c>
+      <c r="W66">
+        <v>4675984</v>
+      </c>
+      <c r="X66">
+        <v>6753385</v>
+      </c>
+      <c r="Y66">
+        <v>1375539</v>
+      </c>
+      <c r="Z66">
         <v>5164978</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA66">
+        <v>761738</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>81</v>
       </c>
@@ -4515,13 +6297,40 @@
         <v>1244150</v>
       </c>
       <c r="Q67">
+        <v>3877595</v>
+      </c>
+      <c r="R67">
+        <v>730433</v>
+      </c>
+      <c r="S67">
+        <v>3853504</v>
+      </c>
+      <c r="T67">
+        <v>17556686</v>
+      </c>
+      <c r="U67">
         <v>3072948</v>
       </c>
-      <c r="R67">
+      <c r="V67">
+        <v>886462</v>
+      </c>
+      <c r="W67">
+        <v>7114831</v>
+      </c>
+      <c r="X67">
+        <v>7461134</v>
+      </c>
+      <c r="Y67">
+        <v>1794044</v>
+      </c>
+      <c r="Z67">
         <v>4288010</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA67">
+        <v>696646</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>82</v>
       </c>
@@ -4571,13 +6380,40 @@
         <v>7685981</v>
       </c>
       <c r="Q68">
+        <v>24587456</v>
+      </c>
+      <c r="R68">
+        <v>3986774</v>
+      </c>
+      <c r="S68">
+        <v>23881815</v>
+      </c>
+      <c r="T68">
+        <v>106109507</v>
+      </c>
+      <c r="U68">
         <v>14949759</v>
       </c>
-      <c r="R68">
+      <c r="V68">
+        <v>4942493</v>
+      </c>
+      <c r="W68">
+        <v>38559031</v>
+      </c>
+      <c r="X68">
+        <v>39493288</v>
+      </c>
+      <c r="Y68">
+        <v>11674710</v>
+      </c>
+      <c r="Z68">
         <v>29411814</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA68">
+        <v>4641722</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>83</v>
       </c>
@@ -4627,13 +6463,40 @@
         <v>6320710</v>
       </c>
       <c r="Q69">
+        <v>19444980</v>
+      </c>
+      <c r="R69">
+        <v>3476661</v>
+      </c>
+      <c r="S69">
+        <v>21380606</v>
+      </c>
+      <c r="T69">
+        <v>89533389</v>
+      </c>
+      <c r="U69">
         <v>13013161</v>
       </c>
-      <c r="R69">
+      <c r="V69">
+        <v>4524123</v>
+      </c>
+      <c r="W69">
+        <v>33247185</v>
+      </c>
+      <c r="X69">
+        <v>32556595</v>
+      </c>
+      <c r="Y69">
+        <v>10212431</v>
+      </c>
+      <c r="Z69">
         <v>24194622</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA69">
+        <v>3784439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>75</v>
       </c>
@@ -4683,13 +6546,40 @@
         <v>446569</v>
       </c>
       <c r="Q70">
+        <v>1247580</v>
+      </c>
+      <c r="R70">
+        <v>555168</v>
+      </c>
+      <c r="S70">
+        <v>1547913</v>
+      </c>
+      <c r="T70">
+        <v>9182898</v>
+      </c>
+      <c r="U70">
         <v>1521056</v>
       </c>
-      <c r="R70">
+      <c r="V70">
+        <v>282134</v>
+      </c>
+      <c r="W70">
+        <v>3431766</v>
+      </c>
+      <c r="X70">
+        <v>3028973</v>
+      </c>
+      <c r="Y70">
+        <v>830100</v>
+      </c>
+      <c r="Z70">
         <v>1876078</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA70">
+        <v>467274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4739,18 +6629,45 @@
         <v>5874141</v>
       </c>
       <c r="Q71">
+        <v>18197400</v>
+      </c>
+      <c r="R71">
+        <v>2921493</v>
+      </c>
+      <c r="S71">
+        <v>19832693</v>
+      </c>
+      <c r="T71">
+        <v>80350491</v>
+      </c>
+      <c r="U71">
         <v>11492105</v>
       </c>
-      <c r="R71">
+      <c r="V71">
+        <v>4241989</v>
+      </c>
+      <c r="W71">
+        <v>29815419</v>
+      </c>
+      <c r="X71">
+        <v>29527622</v>
+      </c>
+      <c r="Y71">
+        <v>9382331</v>
+      </c>
+      <c r="Z71">
         <v>22318544</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA71">
+        <v>3317165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -4800,13 +6717,40 @@
         <v>931774</v>
       </c>
       <c r="Q73">
+        <v>5452020</v>
+      </c>
+      <c r="R73">
+        <v>745247</v>
+      </c>
+      <c r="S73">
+        <v>4851358</v>
+      </c>
+      <c r="T73">
+        <v>25332747</v>
+      </c>
+      <c r="U73">
         <v>4238869</v>
       </c>
-      <c r="R73">
+      <c r="V73">
+        <v>1019138</v>
+      </c>
+      <c r="W73">
+        <v>8776877</v>
+      </c>
+      <c r="X73">
+        <v>7931749</v>
+      </c>
+      <c r="Y73">
+        <v>2154628</v>
+      </c>
+      <c r="Z73">
         <v>5394047</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA73">
+        <v>719443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -4856,13 +6800,40 @@
         <v>16161</v>
       </c>
       <c r="Q74">
+        <v>448974</v>
+      </c>
+      <c r="R74">
+        <v>90258</v>
+      </c>
+      <c r="S74">
+        <v>416475</v>
+      </c>
+      <c r="T74">
+        <v>2459888</v>
+      </c>
+      <c r="U74">
         <v>353281</v>
       </c>
-      <c r="R74">
+      <c r="V74">
+        <v>27361</v>
+      </c>
+      <c r="W74">
+        <v>1120613</v>
+      </c>
+      <c r="X74">
+        <v>795694</v>
+      </c>
+      <c r="Y74">
+        <v>185996</v>
+      </c>
+      <c r="Z74">
         <v>392686</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA74">
+        <v>67401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -4912,13 +6883,40 @@
         <v>647146</v>
       </c>
       <c r="Q75">
+        <v>4042360</v>
+      </c>
+      <c r="R75">
+        <v>610928</v>
+      </c>
+      <c r="S75">
+        <v>3913615</v>
+      </c>
+      <c r="T75">
+        <v>22940418</v>
+      </c>
+      <c r="U75">
         <v>3950995</v>
       </c>
-      <c r="R75">
+      <c r="V75">
+        <v>761518</v>
+      </c>
+      <c r="W75">
+        <v>7705225</v>
+      </c>
+      <c r="X75">
+        <v>6570975</v>
+      </c>
+      <c r="Y75">
+        <v>1646293</v>
+      </c>
+      <c r="Z75">
         <v>4521386</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA75">
+        <v>477041</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -4968,13 +6966,40 @@
         <v>10530</v>
       </c>
       <c r="Q76">
+        <v>443185</v>
+      </c>
+      <c r="R76">
+        <v>81370</v>
+      </c>
+      <c r="S76">
+        <v>405377</v>
+      </c>
+      <c r="T76">
+        <v>2456240</v>
+      </c>
+      <c r="U76">
         <v>353281</v>
       </c>
-      <c r="R76">
+      <c r="V76">
+        <v>26608</v>
+      </c>
+      <c r="W76">
+        <v>1118094</v>
+      </c>
+      <c r="X76">
+        <v>792758</v>
+      </c>
+      <c r="Y76">
+        <v>161952</v>
+      </c>
+      <c r="Z76">
         <v>388301</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA76">
+        <v>67278</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -5029,8 +7054,35 @@
       <c r="R77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S77">
+        <v>79660</v>
+      </c>
+      <c r="T77">
+        <v>142197</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>86</v>
       </c>
@@ -5085,8 +7137,35 @@
       <c r="R78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S78">
+        <v>2824</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>89</v>
       </c>
@@ -5136,13 +7215,40 @@
         <v>233683</v>
       </c>
       <c r="Q79">
+        <v>1409660</v>
+      </c>
+      <c r="R79">
+        <v>134319</v>
+      </c>
+      <c r="S79">
+        <v>858083</v>
+      </c>
+      <c r="T79">
+        <v>2250132</v>
+      </c>
+      <c r="U79">
         <v>287874</v>
       </c>
-      <c r="R79">
+      <c r="V79">
+        <v>257620</v>
+      </c>
+      <c r="W79">
+        <v>1071652</v>
+      </c>
+      <c r="X79">
+        <v>1360774</v>
+      </c>
+      <c r="Y79">
+        <v>508335</v>
+      </c>
+      <c r="Z79">
         <v>872661</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA79">
+        <v>242402</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -5192,18 +7298,45 @@
         <v>2411</v>
       </c>
       <c r="Q80">
+        <v>9381</v>
+      </c>
+      <c r="R80">
+        <v>2736</v>
+      </c>
+      <c r="S80">
+        <v>10922</v>
+      </c>
+      <c r="T80">
+        <v>23742</v>
+      </c>
+      <c r="U80">
         <v>7096</v>
       </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V80">
+        <v>3449</v>
+      </c>
+      <c r="W80">
+        <v>16670</v>
+      </c>
+      <c r="X80">
+        <v>7379</v>
+      </c>
+      <c r="Y80">
+        <v>13897</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -5253,13 +7386,40 @@
         <v>2921494</v>
       </c>
       <c r="Q82">
+        <v>7589510</v>
+      </c>
+      <c r="R82">
+        <v>1097782</v>
+      </c>
+      <c r="S82">
+        <v>10698130</v>
+      </c>
+      <c r="T82">
+        <v>35000375</v>
+      </c>
+      <c r="U82">
         <v>3409524</v>
       </c>
-      <c r="R82">
+      <c r="V82">
+        <v>1767690</v>
+      </c>
+      <c r="W82">
+        <v>9361540</v>
+      </c>
+      <c r="X82">
+        <v>11355434</v>
+      </c>
+      <c r="Y82">
+        <v>4629119</v>
+      </c>
+      <c r="Z82">
         <v>9691875</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA82">
+        <v>804874</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>93</v>
       </c>
@@ -5309,13 +7469,40 @@
         <v>30316</v>
       </c>
       <c r="Q83">
+        <v>333974</v>
+      </c>
+      <c r="R83">
+        <v>83429</v>
+      </c>
+      <c r="S83">
+        <v>587121</v>
+      </c>
+      <c r="T83">
+        <v>1697953</v>
+      </c>
+      <c r="U83">
         <v>592322</v>
       </c>
-      <c r="R83">
+      <c r="V83">
+        <v>48841</v>
+      </c>
+      <c r="W83">
+        <v>338423</v>
+      </c>
+      <c r="X83">
+        <v>475772</v>
+      </c>
+      <c r="Y83">
+        <v>336851</v>
+      </c>
+      <c r="Z83">
         <v>236255</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -5365,13 +7552,40 @@
         <v>2628248</v>
       </c>
       <c r="Q84">
+        <v>6603104</v>
+      </c>
+      <c r="R84">
+        <v>762172</v>
+      </c>
+      <c r="S84">
+        <v>9254591</v>
+      </c>
+      <c r="T84">
+        <v>30755080</v>
+      </c>
+      <c r="U84">
         <v>2588962</v>
       </c>
-      <c r="R84">
+      <c r="V84">
+        <v>1095326</v>
+      </c>
+      <c r="W84">
+        <v>8398782</v>
+      </c>
+      <c r="X84">
+        <v>9715992</v>
+      </c>
+      <c r="Y84">
+        <v>3756165</v>
+      </c>
+      <c r="Z84">
         <v>8745677</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA84">
+        <v>623581</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>95</v>
       </c>
@@ -5421,13 +7635,40 @@
         <v>262930</v>
       </c>
       <c r="Q85">
+        <v>652432</v>
+      </c>
+      <c r="R85">
+        <v>252181</v>
+      </c>
+      <c r="S85">
+        <v>856418</v>
+      </c>
+      <c r="T85">
+        <v>2547342</v>
+      </c>
+      <c r="U85">
         <v>228240</v>
       </c>
-      <c r="R85">
+      <c r="V85">
+        <v>623523</v>
+      </c>
+      <c r="W85">
+        <v>624335</v>
+      </c>
+      <c r="X85">
+        <v>1163670</v>
+      </c>
+      <c r="Y85">
+        <v>536103</v>
+      </c>
+      <c r="Z85">
         <v>709943</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA85">
+        <v>181272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>43</v>
       </c>
@@ -5477,13 +7718,40 @@
         <v>56811</v>
       </c>
       <c r="Q86">
+        <v>1637482</v>
+      </c>
+      <c r="R86">
+        <v>23640</v>
+      </c>
+      <c r="S86">
+        <v>342646</v>
+      </c>
+      <c r="T86">
+        <v>6968169</v>
+      </c>
+      <c r="U86">
         <v>1479024</v>
       </c>
-      <c r="R86">
+      <c r="V86">
+        <v>20965</v>
+      </c>
+      <c r="W86">
+        <v>4414584</v>
+      </c>
+      <c r="X86">
+        <v>2586922</v>
+      </c>
+      <c r="Y86">
+        <v>136349</v>
+      </c>
+      <c r="Z86">
         <v>1877692</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA86">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -5533,13 +7801,40 @@
         <v>1639</v>
       </c>
       <c r="Q87">
+        <v>14861</v>
+      </c>
+      <c r="R87">
+        <v>230</v>
+      </c>
+      <c r="S87">
+        <v>2044</v>
+      </c>
+      <c r="T87">
+        <v>334558</v>
+      </c>
+      <c r="U87">
         <v>49309</v>
       </c>
-      <c r="R87">
+      <c r="V87">
+        <v>251</v>
+      </c>
+      <c r="W87">
+        <v>217864</v>
+      </c>
+      <c r="X87">
+        <v>103614</v>
+      </c>
+      <c r="Y87">
+        <v>8137</v>
+      </c>
+      <c r="Z87">
         <v>55476</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -5589,13 +7884,40 @@
         <v>203133</v>
       </c>
       <c r="Q88">
+        <v>1011386</v>
+      </c>
+      <c r="R88">
+        <v>141119</v>
+      </c>
+      <c r="S88">
+        <v>548664</v>
+      </c>
+      <c r="T88">
+        <v>2339903</v>
+      </c>
+      <c r="U88">
         <v>291746</v>
       </c>
-      <c r="R88">
+      <c r="V88">
+        <v>351287</v>
+      </c>
+      <c r="W88">
+        <v>893316</v>
+      </c>
+      <c r="X88">
+        <v>2072982</v>
+      </c>
+      <c r="Y88">
+        <v>223492</v>
+      </c>
+      <c r="Z88">
         <v>465132</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA88">
+        <v>348886</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -5645,13 +7967,40 @@
         <v>35443</v>
       </c>
       <c r="Q89">
+        <v>55846</v>
+      </c>
+      <c r="R89">
+        <v>21458</v>
+      </c>
+      <c r="S89">
+        <v>64765</v>
+      </c>
+      <c r="T89">
+        <v>193613</v>
+      </c>
+      <c r="U89">
         <v>10892</v>
       </c>
-      <c r="R89">
+      <c r="V89">
+        <v>2578</v>
+      </c>
+      <c r="W89">
+        <v>82881</v>
+      </c>
+      <c r="X89">
+        <v>183710</v>
+      </c>
+      <c r="Y89">
+        <v>23067</v>
+      </c>
+      <c r="Z89">
         <v>111465</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA89">
+        <v>26687</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -5701,18 +8050,45 @@
         <v>0</v>
       </c>
       <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>1386</v>
+      </c>
+      <c r="S90">
+        <v>5411</v>
+      </c>
+      <c r="T90">
+        <v>558242</v>
+      </c>
+      <c r="U90">
         <v>2069</v>
       </c>
-      <c r="R90">
+      <c r="V90">
+        <v>1119</v>
+      </c>
+      <c r="W90">
+        <v>10983</v>
+      </c>
+      <c r="X90">
+        <v>12783</v>
+      </c>
+      <c r="Y90">
+        <v>9811</v>
+      </c>
+      <c r="Z90">
         <v>27279</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>44</v>
       </c>
@@ -5762,13 +8138,40 @@
         <v>322533</v>
       </c>
       <c r="Q92">
+        <v>1147302</v>
+      </c>
+      <c r="R92">
+        <v>546613</v>
+      </c>
+      <c r="S92">
+        <v>1361788</v>
+      </c>
+      <c r="T92">
+        <v>8020680</v>
+      </c>
+      <c r="U92">
         <v>968558</v>
       </c>
-      <c r="R92">
+      <c r="V92">
+        <v>416723</v>
+      </c>
+      <c r="W92">
+        <v>3781483</v>
+      </c>
+      <c r="X92">
+        <v>2249750</v>
+      </c>
+      <c r="Y92">
+        <v>1007425</v>
+      </c>
+      <c r="Z92">
         <v>2136641</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA92">
+        <v>606961</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -5818,13 +8221,40 @@
         <v>252243</v>
       </c>
       <c r="Q93">
+        <v>637054</v>
+      </c>
+      <c r="R93">
+        <v>394469</v>
+      </c>
+      <c r="S93">
+        <v>925306</v>
+      </c>
+      <c r="T93">
+        <v>5667466</v>
+      </c>
+      <c r="U93">
         <v>694988</v>
       </c>
-      <c r="R93">
+      <c r="V93">
+        <v>198314</v>
+      </c>
+      <c r="W93">
+        <v>1975481</v>
+      </c>
+      <c r="X93">
+        <v>1344478</v>
+      </c>
+      <c r="Y93">
+        <v>508509</v>
+      </c>
+      <c r="Z93">
         <v>1116431</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA93">
+        <v>352545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>45</v>
       </c>
@@ -5874,13 +8304,40 @@
         <v>93314</v>
       </c>
       <c r="Q94">
+        <v>3691</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>62392</v>
+      </c>
+      <c r="T94">
+        <v>9656</v>
+      </c>
+      <c r="U94">
         <v>5658</v>
       </c>
-      <c r="R94">
+      <c r="V94">
+        <v>17414</v>
+      </c>
+      <c r="W94">
+        <v>9451</v>
+      </c>
+      <c r="X94">
+        <v>1843</v>
+      </c>
+      <c r="Y94">
+        <v>3939</v>
+      </c>
+      <c r="Z94">
         <v>86013</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA94">
+        <v>41472</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -5933,10 +8390,37 @@
         <v>0</v>
       </c>
       <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
         <v>753</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -5986,18 +8470,45 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>180972</v>
       </c>
       <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>425534</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+      <c r="Y96">
+        <v>13932</v>
+      </c>
+      <c r="Z96">
         <v>2207</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -6047,13 +8558,40 @@
         <v>87957</v>
       </c>
       <c r="Q98">
+        <v>157287</v>
+      </c>
+      <c r="R98">
+        <v>43320</v>
+      </c>
+      <c r="S98">
+        <v>208472</v>
+      </c>
+      <c r="T98">
+        <v>1000389</v>
+      </c>
+      <c r="U98">
         <v>144063</v>
       </c>
-      <c r="R98">
+      <c r="V98">
+        <v>113361</v>
+      </c>
+      <c r="W98">
+        <v>368058</v>
+      </c>
+      <c r="X98">
+        <v>417155</v>
+      </c>
+      <c r="Y98">
+        <v>73554</v>
+      </c>
+      <c r="Z98">
         <v>133236</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA98">
+        <v>39890</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -6108,8 +8646,35 @@
       <c r="R99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -6159,13 +8724,40 @@
         <v>201365</v>
       </c>
       <c r="Q100">
+        <v>458406</v>
+      </c>
+      <c r="R100">
+        <v>124655</v>
+      </c>
+      <c r="S100">
+        <v>674152</v>
+      </c>
+      <c r="T100">
+        <v>3451830</v>
+      </c>
+      <c r="U100">
         <v>342133</v>
       </c>
-      <c r="R100">
+      <c r="V100">
+        <v>152546</v>
+      </c>
+      <c r="W100">
+        <v>1344281</v>
+      </c>
+      <c r="X100">
+        <v>984771</v>
+      </c>
+      <c r="Y100">
+        <v>285324</v>
+      </c>
+      <c r="Z100">
         <v>1028001</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA100">
+        <v>146371</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>86</v>
       </c>
@@ -6215,13 +8807,40 @@
         <v>4611</v>
       </c>
       <c r="Q101">
+        <v>4906</v>
+      </c>
+      <c r="R101">
+        <v>1209</v>
+      </c>
+      <c r="S101">
+        <v>9023</v>
+      </c>
+      <c r="T101">
+        <v>62557</v>
+      </c>
+      <c r="U101">
         <v>43150</v>
       </c>
-      <c r="R101">
+      <c r="V101">
+        <v>1178</v>
+      </c>
+      <c r="W101">
+        <v>21716</v>
+      </c>
+      <c r="X101">
+        <v>42606</v>
+      </c>
+      <c r="Y101">
+        <v>17229</v>
+      </c>
+      <c r="Z101">
         <v>34952</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA101">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -6271,18 +8890,45 @@
         <v>15973</v>
       </c>
       <c r="Q102">
+        <v>101526</v>
+      </c>
+      <c r="R102">
+        <v>27286</v>
+      </c>
+      <c r="S102">
+        <v>83559</v>
+      </c>
+      <c r="T102">
+        <v>496692</v>
+      </c>
+      <c r="U102">
         <v>54418</v>
       </c>
-      <c r="R102">
+      <c r="V102">
+        <v>36590</v>
+      </c>
+      <c r="W102">
+        <v>183168</v>
+      </c>
+      <c r="X102">
+        <v>389287</v>
+      </c>
+      <c r="Y102">
+        <v>69370</v>
+      </c>
+      <c r="Z102">
         <v>188810</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA102">
+        <v>30449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>48</v>
       </c>
@@ -6332,13 +8978,40 @@
         <v>69549</v>
       </c>
       <c r="Q104">
+        <v>191468</v>
+      </c>
+      <c r="R104">
+        <v>141188</v>
+      </c>
+      <c r="S104">
+        <v>313605</v>
+      </c>
+      <c r="T104">
+        <v>800360</v>
+      </c>
+      <c r="U104">
         <v>188640</v>
       </c>
-      <c r="R104">
+      <c r="V104">
+        <v>107834</v>
+      </c>
+      <c r="W104">
+        <v>219497</v>
+      </c>
+      <c r="X104">
+        <v>901138</v>
+      </c>
+      <c r="Y104">
+        <v>234200</v>
+      </c>
+      <c r="Z104">
         <v>660400</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA104">
+        <v>154632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>86</v>
       </c>
@@ -6388,13 +9061,40 @@
         <v>20136</v>
       </c>
       <c r="Q105">
+        <v>16752</v>
+      </c>
+      <c r="R105">
+        <v>3992</v>
+      </c>
+      <c r="S105">
+        <v>19669</v>
+      </c>
+      <c r="T105">
+        <v>50939</v>
+      </c>
+      <c r="U105">
         <v>8910</v>
       </c>
-      <c r="R105">
+      <c r="V105">
+        <v>4173</v>
+      </c>
+      <c r="W105">
+        <v>5339</v>
+      </c>
+      <c r="X105">
+        <v>211007</v>
+      </c>
+      <c r="Y105">
+        <v>49529</v>
+      </c>
+      <c r="Z105">
         <v>46965</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA105">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>49</v>
       </c>
@@ -6444,13 +9144,40 @@
         <v>32191</v>
       </c>
       <c r="Q106">
+        <v>107276</v>
+      </c>
+      <c r="R106">
+        <v>33568</v>
+      </c>
+      <c r="S106">
+        <v>81365</v>
+      </c>
+      <c r="T106">
+        <v>186580</v>
+      </c>
+      <c r="U106">
         <v>42995</v>
       </c>
-      <c r="R106">
+      <c r="V106">
+        <v>19594</v>
+      </c>
+      <c r="W106">
+        <v>115347</v>
+      </c>
+      <c r="X106">
+        <v>111207</v>
+      </c>
+      <c r="Y106">
+        <v>53084</v>
+      </c>
+      <c r="Z106">
         <v>35426</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA106">
+        <v>23473</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>86</v>
       </c>
@@ -6500,13 +9227,40 @@
         <v>169</v>
       </c>
       <c r="Q107">
+        <v>5340</v>
+      </c>
+      <c r="R107">
+        <v>6375</v>
+      </c>
+      <c r="S107">
+        <v>3167</v>
+      </c>
+      <c r="T107">
+        <v>26204</v>
+      </c>
+      <c r="U107">
         <v>2426</v>
       </c>
-      <c r="R107">
+      <c r="V107">
+        <v>537</v>
+      </c>
+      <c r="W107">
+        <v>2036</v>
+      </c>
+      <c r="X107">
+        <v>30603</v>
+      </c>
+      <c r="Y107">
+        <v>5347</v>
+      </c>
+      <c r="Z107">
         <v>2352</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA107">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>50</v>
       </c>
@@ -6556,13 +9310,40 @@
         <v>75043</v>
       </c>
       <c r="Q108">
+        <v>149805</v>
+      </c>
+      <c r="R108">
+        <v>38224</v>
+      </c>
+      <c r="S108">
+        <v>267974</v>
+      </c>
+      <c r="T108">
+        <v>46889</v>
+      </c>
+      <c r="U108">
         <v>124290</v>
       </c>
-      <c r="R108">
+      <c r="V108">
+        <v>89796</v>
+      </c>
+      <c r="W108">
+        <v>156990</v>
+      </c>
+      <c r="X108">
+        <v>154675</v>
+      </c>
+      <c r="Y108">
+        <v>18429</v>
+      </c>
+      <c r="Z108">
         <v>27319</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA108">
+        <v>8097</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -6612,13 +9393,40 @@
         <v>50201</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>584</v>
       </c>
       <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="S109">
+        <v>922</v>
+      </c>
+      <c r="T109">
+        <v>58896</v>
+      </c>
+      <c r="U109">
+        <v>0</v>
+      </c>
+      <c r="V109">
+        <v>1754</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>2357</v>
+      </c>
+      <c r="Z109">
         <v>1241</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -6673,8 +9481,35 @@
       <c r="R110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>3</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>16</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>52</v>
       </c>
@@ -6724,13 +9559,40 @@
         <v>91947</v>
       </c>
       <c r="Q111">
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="S111">
+        <v>34968</v>
+      </c>
+      <c r="T111">
+        <v>68574</v>
+      </c>
+      <c r="U111">
         <v>4107</v>
       </c>
-      <c r="R111">
+      <c r="V111">
+        <v>2293</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>10543</v>
+      </c>
+      <c r="Y111">
+        <v>9260</v>
+      </c>
+      <c r="Z111">
         <v>5716</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA111">
+        <v>5819</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>86</v>
       </c>
@@ -6780,18 +9642,45 @@
         <v>35944</v>
       </c>
       <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="S112">
+        <v>115</v>
+      </c>
+      <c r="T112">
+        <v>2630</v>
+      </c>
+      <c r="U112">
         <v>93</v>
       </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V112">
+        <v>6</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>594</v>
+      </c>
+      <c r="Y112">
+        <v>45</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>107</v>
       </c>
@@ -6841,13 +9730,40 @@
         <v>127179</v>
       </c>
       <c r="Q114">
+        <v>405846</v>
+      </c>
+      <c r="R114">
+        <v>95915</v>
+      </c>
+      <c r="S114">
+        <v>460651</v>
+      </c>
+      <c r="T114">
+        <v>974702</v>
+      </c>
+      <c r="U114">
         <v>379731</v>
       </c>
-      <c r="R114">
+      <c r="V114">
+        <v>82891</v>
+      </c>
+      <c r="W114">
+        <v>538989</v>
+      </c>
+      <c r="X114">
+        <v>428465</v>
+      </c>
+      <c r="Y114">
+        <v>207090</v>
+      </c>
+      <c r="Z114">
         <v>441011</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA114">
+        <v>132579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>108</v>
       </c>
@@ -6897,13 +9813,40 @@
         <v>121776</v>
       </c>
       <c r="Q115">
+        <v>92466</v>
+      </c>
+      <c r="R115">
+        <v>51085</v>
+      </c>
+      <c r="S115">
+        <v>295297</v>
+      </c>
+      <c r="T115">
+        <v>698713</v>
+      </c>
+      <c r="U115">
         <v>168415</v>
       </c>
-      <c r="R115">
+      <c r="V115">
+        <v>66171</v>
+      </c>
+      <c r="W115">
+        <v>509206</v>
+      </c>
+      <c r="X115">
+        <v>275015</v>
+      </c>
+      <c r="Y115">
+        <v>204784</v>
+      </c>
+      <c r="Z115">
         <v>293492</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA115">
+        <v>90642</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>109</v>
       </c>
@@ -6953,13 +9896,40 @@
         <v>65767</v>
       </c>
       <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>14699</v>
+      </c>
+      <c r="S116">
+        <v>197884</v>
+      </c>
+      <c r="T116">
+        <v>97503</v>
+      </c>
+      <c r="U116">
         <v>279865</v>
       </c>
-      <c r="R116">
+      <c r="V116">
+        <v>6297</v>
+      </c>
+      <c r="W116">
+        <v>226250</v>
+      </c>
+      <c r="X116">
+        <v>362147</v>
+      </c>
+      <c r="Y116">
+        <v>32234</v>
+      </c>
+      <c r="Z116">
         <v>18939</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA116">
+        <v>69366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>110</v>
       </c>
@@ -7009,13 +9979,40 @@
         <v>216280</v>
       </c>
       <c r="Q117">
+        <v>93283</v>
+      </c>
+      <c r="R117">
+        <v>54592</v>
+      </c>
+      <c r="S117">
+        <v>70284</v>
+      </c>
+      <c r="T117">
+        <v>185841</v>
+      </c>
+      <c r="U117">
         <v>134316</v>
       </c>
-      <c r="R117">
+      <c r="V117">
+        <v>30498</v>
+      </c>
+      <c r="W117">
+        <v>82236</v>
+      </c>
+      <c r="X117">
+        <v>115187</v>
+      </c>
+      <c r="Y117">
+        <v>45022</v>
+      </c>
+      <c r="Z117">
         <v>424312</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA117">
+        <v>58284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>111</v>
       </c>
@@ -7065,18 +10062,45 @@
         <v>518566</v>
       </c>
       <c r="Q118">
+        <v>265819</v>
+      </c>
+      <c r="R118">
+        <v>108377</v>
+      </c>
+      <c r="S118">
+        <v>239100</v>
+      </c>
+      <c r="T118">
+        <v>1204811</v>
+      </c>
+      <c r="U118">
         <v>237079</v>
       </c>
-      <c r="R118">
+      <c r="V118">
+        <v>109971</v>
+      </c>
+      <c r="W118">
+        <v>1066388</v>
+      </c>
+      <c r="X118">
+        <v>1414999</v>
+      </c>
+      <c r="Y118">
+        <v>181326</v>
+      </c>
+      <c r="Z118">
         <v>598458</v>
       </c>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA118">
+        <v>27290</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>113</v>
       </c>
@@ -7126,13 +10150,40 @@
         <v>7344</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="R120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="U120">
+        <v>0</v>
+      </c>
+      <c r="V120">
+        <v>30917</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -7182,13 +10233,40 @@
         <v>72659</v>
       </c>
       <c r="Q121">
+        <v>333553</v>
+      </c>
+      <c r="R121">
+        <v>163771</v>
+      </c>
+      <c r="S121">
+        <v>506297</v>
+      </c>
+      <c r="T121">
+        <v>1814482</v>
+      </c>
+      <c r="U121">
         <v>499673</v>
       </c>
-      <c r="R121">
+      <c r="V121">
+        <v>73247</v>
+      </c>
+      <c r="W121">
+        <v>663456</v>
+      </c>
+      <c r="X121">
+        <v>589454</v>
+      </c>
+      <c r="Y121">
+        <v>580738</v>
+      </c>
+      <c r="Z121">
         <v>545157</v>
       </c>
-    </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA121">
+        <v>440768</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -7238,13 +10316,40 @@
         <v>109612</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>1828071</v>
       </c>
       <c r="R122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>594</v>
+      </c>
+      <c r="T122">
+        <v>6222</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>20</v>
+      </c>
+      <c r="W122">
+        <v>62372</v>
+      </c>
+      <c r="X122">
+        <v>183308</v>
+      </c>
+      <c r="Y122">
+        <v>10334</v>
+      </c>
+      <c r="Z122">
         <v>52214</v>
       </c>
-    </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>116</v>
       </c>
@@ -7294,13 +10399,40 @@
         <v>6466</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>114183</v>
       </c>
       <c r="R123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0</v>
+      </c>
+      <c r="T123">
+        <v>2046</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>20</v>
+      </c>
+      <c r="W123">
+        <v>3624</v>
+      </c>
+      <c r="X123">
+        <v>130831</v>
+      </c>
+      <c r="Y123">
+        <v>5686</v>
+      </c>
+      <c r="Z123">
         <v>49682</v>
       </c>
-    </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>117</v>
       </c>
@@ -7350,13 +10482,40 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>3607</v>
       </c>
       <c r="R124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S124">
+        <v>180</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>118</v>
       </c>
@@ -7406,13 +10565,40 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>1824464</v>
       </c>
       <c r="R125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>119</v>
       </c>
@@ -7467,8 +10653,35 @@
       <c r="R126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S126">
+        <v>0</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>120</v>
       </c>
@@ -7521,10 +10734,37 @@
         <v>0</v>
       </c>
       <c r="R127">
+        <v>0</v>
+      </c>
+      <c r="S127">
+        <v>414</v>
+      </c>
+      <c r="T127">
+        <v>6222</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>20</v>
+      </c>
+      <c r="W127">
+        <v>62372</v>
+      </c>
+      <c r="X127">
+        <v>183308</v>
+      </c>
+      <c r="Y127">
+        <v>10334</v>
+      </c>
+      <c r="Z127">
         <v>52214</v>
       </c>
-    </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>121</v>
       </c>
@@ -7574,13 +10814,40 @@
         <v>0</v>
       </c>
       <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
         <v>240154</v>
       </c>
-      <c r="R128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V128">
+        <v>57216</v>
+      </c>
+      <c r="W128">
+        <v>573490</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>76406</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>95540</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>122</v>
       </c>
@@ -7630,13 +10897,40 @@
         <v>1255659</v>
       </c>
       <c r="Q129">
+        <v>3314405</v>
+      </c>
+      <c r="R129">
+        <v>510113</v>
+      </c>
+      <c r="S129">
+        <v>2500615</v>
+      </c>
+      <c r="T129">
+        <v>16569896</v>
+      </c>
+      <c r="U129">
         <v>1696444</v>
       </c>
-      <c r="R129">
+      <c r="V129">
+        <v>361134</v>
+      </c>
+      <c r="W129">
+        <v>4675984</v>
+      </c>
+      <c r="X129">
+        <v>6753385</v>
+      </c>
+      <c r="Y129">
+        <v>1375539</v>
+      </c>
+      <c r="Z129">
         <v>5164978</v>
       </c>
-    </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA129">
+        <v>761738</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>123</v>
       </c>
@@ -7686,13 +10980,40 @@
         <v>169390</v>
       </c>
       <c r="Q130">
+        <v>156864</v>
+      </c>
+      <c r="R130">
+        <v>26215</v>
+      </c>
+      <c r="S130">
+        <v>304801</v>
+      </c>
+      <c r="T130">
+        <v>2467411</v>
+      </c>
+      <c r="U130">
         <v>176367</v>
       </c>
-      <c r="R130">
+      <c r="V130">
+        <v>77421</v>
+      </c>
+      <c r="W130">
+        <v>451964</v>
+      </c>
+      <c r="X130">
+        <v>1012283</v>
+      </c>
+      <c r="Y130">
+        <v>210875</v>
+      </c>
+      <c r="Z130">
         <v>631630</v>
       </c>
-    </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA130">
+        <v>76945</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>124</v>
       </c>
@@ -7742,13 +11063,40 @@
         <v>905553</v>
       </c>
       <c r="Q131">
+        <v>3068987</v>
+      </c>
+      <c r="R131">
+        <v>482033</v>
+      </c>
+      <c r="S131">
+        <v>2195814</v>
+      </c>
+      <c r="T131">
+        <v>13728432</v>
+      </c>
+      <c r="U131">
         <v>1330685</v>
       </c>
-      <c r="R131">
+      <c r="V131">
+        <v>283713</v>
+      </c>
+      <c r="W131">
+        <v>4220042</v>
+      </c>
+      <c r="X131">
+        <v>3694956</v>
+      </c>
+      <c r="Y131">
+        <v>1131323</v>
+      </c>
+      <c r="Z131">
         <v>4531294</v>
       </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA131">
+        <v>495008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>125</v>
       </c>
@@ -7798,13 +11146,40 @@
         <v>1654</v>
       </c>
       <c r="Q132">
+        <v>88554</v>
+      </c>
+      <c r="R132">
+        <v>1865</v>
+      </c>
+      <c r="S132">
+        <v>0</v>
+      </c>
+      <c r="T132">
+        <v>374053</v>
+      </c>
+      <c r="U132">
         <v>189392</v>
       </c>
-      <c r="R132">
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>3978</v>
+      </c>
+      <c r="X132">
+        <v>2046146</v>
+      </c>
+      <c r="Y132">
+        <v>33341</v>
+      </c>
+      <c r="Z132">
         <v>2054</v>
       </c>
-    </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA132">
+        <v>189785</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>126</v>
       </c>
@@ -7859,8 +11234,35 @@
       <c r="R133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S133">
+        <v>0</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>127</v>
       </c>
@@ -7910,13 +11312,40 @@
         <v>9004835</v>
       </c>
       <c r="Q134">
+        <v>14738437</v>
+      </c>
+      <c r="R134">
+        <v>3346046</v>
+      </c>
+      <c r="S134">
+        <v>7120773</v>
+      </c>
+      <c r="T134">
+        <v>48038004</v>
+      </c>
+      <c r="U134">
         <v>7479978</v>
       </c>
-      <c r="R134">
+      <c r="V134">
+        <v>3388764</v>
+      </c>
+      <c r="W134">
+        <v>28231613</v>
+      </c>
+      <c r="X134">
+        <v>32231967</v>
+      </c>
+      <c r="Y134">
+        <v>8161669</v>
+      </c>
+      <c r="Z134">
         <v>22086615</v>
       </c>
-    </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA134">
+        <v>834783</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>128</v>
       </c>
@@ -7966,13 +11395,40 @@
         <v>59064</v>
       </c>
       <c r="Q135">
+        <v>436639</v>
+      </c>
+      <c r="R135">
+        <v>940</v>
+      </c>
+      <c r="S135">
+        <v>289832</v>
+      </c>
+      <c r="T135">
+        <v>3816728</v>
+      </c>
+      <c r="U135">
         <v>117917</v>
       </c>
-      <c r="R135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V135">
+        <v>180589</v>
+      </c>
+      <c r="W135">
+        <v>115594</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>2605</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>129</v>
       </c>
@@ -8022,13 +11478,40 @@
         <v>8945771</v>
       </c>
       <c r="Q136">
+        <v>14301798</v>
+      </c>
+      <c r="R136">
+        <v>3345106</v>
+      </c>
+      <c r="S136">
+        <v>6830941</v>
+      </c>
+      <c r="T136">
+        <v>44221276</v>
+      </c>
+      <c r="U136">
         <v>7362061</v>
       </c>
-      <c r="R136">
+      <c r="V136">
+        <v>3208175</v>
+      </c>
+      <c r="W136">
+        <v>28116019</v>
+      </c>
+      <c r="X136">
+        <v>32231967</v>
+      </c>
+      <c r="Y136">
+        <v>8159064</v>
+      </c>
+      <c r="Z136">
         <v>22086615</v>
       </c>
-    </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA136">
+        <v>834783</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -8078,13 +11561,40 @@
         <v>5018290</v>
       </c>
       <c r="Q137">
+        <v>2827749</v>
+      </c>
+      <c r="R137">
+        <v>2320582</v>
+      </c>
+      <c r="S137">
+        <v>1979170</v>
+      </c>
+      <c r="T137">
+        <v>2682530</v>
+      </c>
+      <c r="U137">
         <v>2997079</v>
       </c>
-      <c r="R137">
+      <c r="V137">
+        <v>1439006</v>
+      </c>
+      <c r="W137">
+        <v>5665019</v>
+      </c>
+      <c r="X137">
+        <v>9788357</v>
+      </c>
+      <c r="Y137">
+        <v>3880269</v>
+      </c>
+      <c r="Z137">
         <v>10752329</v>
       </c>
-    </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA137">
+        <v>706901</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>131</v>
       </c>
@@ -8134,13 +11644,40 @@
         <v>1762949</v>
       </c>
       <c r="Q138">
+        <v>2161007</v>
+      </c>
+      <c r="R138">
+        <v>734921</v>
+      </c>
+      <c r="S138">
+        <v>2194824</v>
+      </c>
+      <c r="T138">
+        <v>9452034</v>
+      </c>
+      <c r="U138">
         <v>1638443</v>
       </c>
-      <c r="R138">
+      <c r="V138">
+        <v>325300</v>
+      </c>
+      <c r="W138">
+        <v>5439561</v>
+      </c>
+      <c r="X138">
+        <v>5793092</v>
+      </c>
+      <c r="Y138">
+        <v>1004646</v>
+      </c>
+      <c r="Z138">
         <v>4513740</v>
       </c>
-    </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA138">
+        <v>215355</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -8190,13 +11727,40 @@
         <v>2144218</v>
       </c>
       <c r="Q139">
+        <v>2040510</v>
+      </c>
+      <c r="R139">
+        <v>628017</v>
+      </c>
+      <c r="S139">
+        <v>1245588</v>
+      </c>
+      <c r="T139">
+        <v>6978193</v>
+      </c>
+      <c r="U139">
         <v>1457838</v>
       </c>
-      <c r="R139">
+      <c r="V139">
+        <v>306771</v>
+      </c>
+      <c r="W139">
+        <v>4813291</v>
+      </c>
+      <c r="X139">
+        <v>5162141</v>
+      </c>
+      <c r="Y139">
+        <v>1121279</v>
+      </c>
+      <c r="Z139">
         <v>4795452</v>
       </c>
-    </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA139">
+        <v>310104</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>133</v>
       </c>
@@ -8246,13 +11810,40 @@
         <v>16878278</v>
       </c>
       <c r="Q140">
+        <v>43842364</v>
+      </c>
+      <c r="R140">
+        <v>16063915</v>
+      </c>
+      <c r="S140">
+        <v>56477397</v>
+      </c>
+      <c r="T140">
+        <v>328613845</v>
+      </c>
+      <c r="U140">
         <v>33757422</v>
       </c>
-      <c r="R140">
+      <c r="V140">
+        <v>8161602</v>
+      </c>
+      <c r="W140">
+        <v>96231900</v>
+      </c>
+      <c r="X140">
+        <v>103805999</v>
+      </c>
+      <c r="Y140">
+        <v>22098523</v>
+      </c>
+      <c r="Z140">
         <v>115021752</v>
       </c>
-    </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA140">
+        <v>31796591</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>134</v>
       </c>
@@ -8302,13 +11893,40 @@
         <v>7939946</v>
       </c>
       <c r="Q141">
+        <v>29575592</v>
+      </c>
+      <c r="R141">
+        <v>10999680</v>
+      </c>
+      <c r="S141">
+        <v>42668828</v>
+      </c>
+      <c r="T141">
+        <v>198557587</v>
+      </c>
+      <c r="U141">
         <v>26907105</v>
       </c>
-      <c r="R141">
+      <c r="V141">
+        <v>4175703</v>
+      </c>
+      <c r="W141">
+        <v>67878044</v>
+      </c>
+      <c r="X141">
+        <v>82739740</v>
+      </c>
+      <c r="Y141">
+        <v>14111343</v>
+      </c>
+      <c r="Z141">
         <v>96232240</v>
       </c>
-    </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA141">
+        <v>10131712</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>66</v>
       </c>
@@ -8358,13 +11976,40 @@
         <v>143762</v>
       </c>
       <c r="Q142">
+        <v>350354</v>
+      </c>
+      <c r="R142">
+        <v>178884</v>
+      </c>
+      <c r="S142">
+        <v>1853296</v>
+      </c>
+      <c r="T142">
+        <v>4147804</v>
+      </c>
+      <c r="U142">
         <v>1762962</v>
       </c>
-      <c r="R142">
+      <c r="V142">
+        <v>385986</v>
+      </c>
+      <c r="W142">
+        <v>1518058</v>
+      </c>
+      <c r="X142">
+        <v>7266938</v>
+      </c>
+      <c r="Y142">
+        <v>229440</v>
+      </c>
+      <c r="Z142">
         <v>1027690</v>
       </c>
-    </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA142">
+        <v>700700</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>67</v>
       </c>
@@ -8414,13 +12059,40 @@
         <v>7690216</v>
       </c>
       <c r="Q143">
+        <v>28819883</v>
+      </c>
+      <c r="R143">
+        <v>10819867</v>
+      </c>
+      <c r="S143">
+        <v>40815532</v>
+      </c>
+      <c r="T143">
+        <v>188688050</v>
+      </c>
+      <c r="U143">
         <v>23180761</v>
       </c>
-      <c r="R143">
+      <c r="V143">
+        <v>3789717</v>
+      </c>
+      <c r="W143">
+        <v>66354365</v>
+      </c>
+      <c r="X143">
+        <v>60407355</v>
+      </c>
+      <c r="Y143">
+        <v>12267706</v>
+      </c>
+      <c r="Z143">
         <v>95196581</v>
       </c>
-    </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA143">
+        <v>7692952</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>68</v>
       </c>
@@ -8470,13 +12142,40 @@
         <v>0</v>
       </c>
       <c r="Q144">
+        <v>405355</v>
+      </c>
+      <c r="R144">
+        <v>929</v>
+      </c>
+      <c r="S144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <v>5721733</v>
+      </c>
+      <c r="U144">
         <v>1963382</v>
       </c>
-      <c r="R144">
+      <c r="V144">
+        <v>0</v>
+      </c>
+      <c r="W144">
+        <v>5621</v>
+      </c>
+      <c r="X144">
+        <v>15065447</v>
+      </c>
+      <c r="Y144">
+        <v>1614197</v>
+      </c>
+      <c r="Z144">
         <v>7969</v>
       </c>
-    </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA144">
+        <v>1738060</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>135</v>
       </c>
@@ -8531,8 +12230,35 @@
       <c r="R145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S145">
+        <v>0</v>
+      </c>
+      <c r="T145">
+        <v>0</v>
+      </c>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145">
+        <v>0</v>
+      </c>
+      <c r="W145">
+        <v>0</v>
+      </c>
+      <c r="X145">
+        <v>0</v>
+      </c>
+      <c r="Y145">
+        <v>0</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AA145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>136</v>
       </c>
@@ -8582,183 +12308,286 @@
         <v>8938332</v>
       </c>
       <c r="Q146">
+        <v>14266772</v>
+      </c>
+      <c r="R146">
+        <v>5064235</v>
+      </c>
+      <c r="S146">
+        <v>13808569</v>
+      </c>
+      <c r="T146">
+        <v>130056258</v>
+      </c>
+      <c r="U146">
         <v>6850317</v>
       </c>
-      <c r="R146">
+      <c r="V146">
+        <v>3985899</v>
+      </c>
+      <c r="W146">
+        <v>28353856</v>
+      </c>
+      <c r="X146">
+        <v>21066259</v>
+      </c>
+      <c r="Y146">
+        <v>7987180</v>
+      </c>
+      <c r="Z146">
         <v>18789512</v>
       </c>
-    </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AA146">
+        <v>21664879</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>14387729</v>
+      </c>
+      <c r="C147">
+        <v>2930995</v>
+      </c>
+      <c r="D147">
+        <v>1333116</v>
+      </c>
+      <c r="E147">
+        <v>948563</v>
+      </c>
+      <c r="F147">
+        <v>4986803</v>
+      </c>
+      <c r="G147">
+        <v>19820051</v>
+      </c>
+      <c r="H147">
+        <v>2925291</v>
+      </c>
+      <c r="I147">
+        <v>62037566</v>
+      </c>
+      <c r="J147">
+        <v>10053304</v>
+      </c>
+      <c r="K147">
+        <v>1303002</v>
+      </c>
+      <c r="L147">
+        <v>19489489</v>
+      </c>
+      <c r="M147">
+        <v>3125643</v>
+      </c>
+      <c r="N147">
+        <v>4557156</v>
+      </c>
+      <c r="O147">
+        <v>21800748</v>
+      </c>
+      <c r="P147">
+        <v>6540198</v>
+      </c>
+      <c r="Q147">
+        <v>3644452</v>
+      </c>
+      <c r="R147">
+        <v>2404034</v>
+      </c>
+      <c r="S147">
+        <v>4271155</v>
+      </c>
+      <c r="T147">
+        <v>10068743</v>
+      </c>
+      <c r="U147">
+        <v>2954757</v>
+      </c>
+      <c r="V147">
+        <v>2226569</v>
+      </c>
+      <c r="W147">
+        <v>13639066</v>
+      </c>
+      <c r="X147">
+        <v>10085027</v>
+      </c>
+      <c r="Y147">
+        <v>3910568</v>
+      </c>
+      <c r="Z147">
+        <v>14072800</v>
+      </c>
+      <c r="AA147">
+        <v>711619</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>138</v>
       </c>
       <c r="B148">
-        <v>14387729</v>
+        <v>923085</v>
       </c>
       <c r="C148">
-        <v>2930995</v>
+        <v>90793</v>
       </c>
       <c r="D148">
-        <v>1333116</v>
+        <v>139980</v>
       </c>
       <c r="E148">
-        <v>948563</v>
+        <v>291417</v>
       </c>
       <c r="F148">
-        <v>4986803</v>
+        <v>118168</v>
       </c>
       <c r="G148">
-        <v>19820051</v>
+        <v>3025498</v>
       </c>
       <c r="H148">
-        <v>2925291</v>
+        <v>1202460</v>
       </c>
       <c r="I148">
-        <v>62037566</v>
+        <v>4034224</v>
       </c>
       <c r="J148">
-        <v>10053304</v>
+        <v>826132</v>
       </c>
       <c r="K148">
-        <v>1303002</v>
+        <v>24391</v>
       </c>
       <c r="L148">
-        <v>19489489</v>
+        <v>1368374</v>
       </c>
       <c r="M148">
-        <v>3125643</v>
+        <v>212063</v>
       </c>
       <c r="N148">
-        <v>4557156</v>
+        <v>131736</v>
       </c>
       <c r="O148">
-        <v>21800748</v>
+        <v>4395353</v>
       </c>
       <c r="P148">
-        <v>6540198</v>
+        <v>190141</v>
       </c>
       <c r="Q148">
-        <v>2954757</v>
+        <v>384779</v>
       </c>
       <c r="R148">
-        <v>14072800</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+        <v>10412</v>
+      </c>
+      <c r="S148">
+        <v>1051350</v>
+      </c>
+      <c r="T148">
+        <v>2288991</v>
+      </c>
+      <c r="U148">
+        <v>179758</v>
+      </c>
+      <c r="V148">
+        <v>36613</v>
+      </c>
+      <c r="W148">
+        <v>530226</v>
+      </c>
+      <c r="X148">
+        <v>225609</v>
+      </c>
+      <c r="Y148">
+        <v>315601</v>
+      </c>
+      <c r="Z148">
+        <v>138661</v>
+      </c>
+      <c r="AA148">
+        <v>133646</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>139</v>
       </c>
       <c r="B149">
-        <v>923085</v>
+        <v>8239592</v>
       </c>
       <c r="C149">
-        <v>90793</v>
+        <v>4318703</v>
       </c>
       <c r="D149">
-        <v>139980</v>
+        <v>5789728</v>
       </c>
       <c r="E149">
-        <v>291417</v>
+        <v>2765358</v>
       </c>
       <c r="F149">
-        <v>118168</v>
+        <v>1557443</v>
       </c>
       <c r="G149">
-        <v>3025498</v>
+        <v>18854525</v>
       </c>
       <c r="H149">
-        <v>1202460</v>
+        <v>23129140</v>
       </c>
       <c r="I149">
-        <v>4034224</v>
+        <v>31181156</v>
       </c>
       <c r="J149">
-        <v>826132</v>
+        <v>15140548</v>
       </c>
       <c r="K149">
-        <v>24391</v>
+        <v>17358460</v>
       </c>
       <c r="L149">
-        <v>1368374</v>
+        <v>16320434</v>
       </c>
       <c r="M149">
-        <v>212063</v>
+        <v>9592179</v>
       </c>
       <c r="N149">
-        <v>131736</v>
+        <v>8876824</v>
       </c>
       <c r="O149">
-        <v>4395353</v>
+        <v>23710484</v>
       </c>
       <c r="P149">
-        <v>190141</v>
+        <v>2207993</v>
       </c>
       <c r="Q149">
-        <v>179758</v>
+        <v>10237541</v>
       </c>
       <c r="R149">
-        <v>138661</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>140</v>
-      </c>
-      <c r="B150">
-        <v>8239592</v>
-      </c>
-      <c r="C150">
-        <v>4318703</v>
-      </c>
-      <c r="D150">
-        <v>5789728</v>
-      </c>
-      <c r="E150">
-        <v>2765358</v>
-      </c>
-      <c r="F150">
-        <v>1557443</v>
-      </c>
-      <c r="G150">
-        <v>18854525</v>
-      </c>
-      <c r="H150">
-        <v>23129140</v>
-      </c>
-      <c r="I150">
-        <v>31181156</v>
-      </c>
-      <c r="J150">
-        <v>15140548</v>
-      </c>
-      <c r="K150">
-        <v>17358460</v>
-      </c>
-      <c r="L150">
-        <v>16320434</v>
-      </c>
-      <c r="M150">
-        <v>9592179</v>
-      </c>
-      <c r="N150">
-        <v>8876824</v>
-      </c>
-      <c r="O150">
-        <v>23710484</v>
-      </c>
-      <c r="P150">
-        <v>2207993</v>
-      </c>
-      <c r="Q150">
+        <v>2649789</v>
+      </c>
+      <c r="S149">
+        <v>8486064</v>
+      </c>
+      <c r="T149">
+        <v>117698524</v>
+      </c>
+      <c r="U149">
         <v>3715802</v>
       </c>
-      <c r="R150">
+      <c r="V149">
+        <v>1722717</v>
+      </c>
+      <c r="W149">
+        <v>14184564</v>
+      </c>
+      <c r="X149">
+        <v>10755623</v>
+      </c>
+      <c r="Y149">
+        <v>3761011</v>
+      </c>
+      <c r="Z149">
         <v>4578051</v>
+      </c>
+      <c r="AA149">
+        <v>20819614</v>
       </c>
     </row>
   </sheetData>
